--- a/Backend/data/User.xlsx
+++ b/Backend/data/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="76">
   <si>
     <t xml:space="preserve">Mã người dùng</t>
   </si>
@@ -139,6 +139,9 @@
     <t xml:space="preserve">N18DCCN127</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinh viên, Giảng viên</t>
+  </si>
+  <si>
     <t xml:space="preserve">N18DCCN128</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t xml:space="preserve">N18DCCN139</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinh viên, Thủ khoa</t>
+  </si>
+  <si>
     <t xml:space="preserve">N18DCCN140</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t xml:space="preserve">N18DCCN145</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinh viên, Quản trị viên</t>
+  </si>
+  <si>
     <t xml:space="preserve">N18DCCN146</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
   </si>
   <si>
     <t xml:space="preserve">N18DCCN160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N18DCCN161</t>
   </si>
 </sst>
 </file>
@@ -251,7 +263,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -273,14 +284,12 @@
       <color rgb="FF000000"/>
       <name val="times new roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -365,10 +374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,7 +386,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,7 +430,10 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="str">
+        <f aca="false">"30/12/"&amp;""&amp;"2022"</f>
+        <v>30/12/2022</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
@@ -908,12 +920,12 @@
         <v>n18dccn127@gmail.com</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>31</v>
@@ -941,7 +953,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>31</v>
@@ -969,7 +981,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
@@ -997,7 +1009,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>31</v>
@@ -1025,7 +1037,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
@@ -1053,7 +1065,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
@@ -1081,7 +1093,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>31</v>
@@ -1109,7 +1121,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>31</v>
@@ -1137,7 +1149,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>31</v>
@@ -1165,7 +1177,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>31</v>
@@ -1193,7 +1205,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
@@ -1221,7 +1233,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
@@ -1244,12 +1256,12 @@
         <v>n18dccn139@gmail.com</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -1277,7 +1289,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
@@ -1305,7 +1317,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
@@ -1333,7 +1345,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>31</v>
@@ -1361,7 +1373,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>31</v>
@@ -1389,7 +1401,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>31</v>
@@ -1412,12 +1424,12 @@
         <v>n18dccn145@gmail.com</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>31</v>
@@ -1445,7 +1457,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>31</v>
@@ -1473,7 +1485,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>31</v>
@@ -1501,7 +1513,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>31</v>
@@ -1529,7 +1541,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>31</v>
@@ -1557,7 +1569,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>31</v>
@@ -1585,7 +1597,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>31</v>
@@ -1613,7 +1625,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>31</v>
@@ -1641,7 +1653,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>31</v>
@@ -1669,7 +1681,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>31</v>
@@ -1697,7 +1709,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>31</v>
@@ -1725,7 +1737,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>31</v>
@@ -1753,7 +1765,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>31</v>
@@ -1781,7 +1793,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>31</v>
@@ -1809,7 +1821,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>31</v>
@@ -1832,6 +1844,34 @@
         <v>n18dccn160@gmail.com</v>
       </c>
       <c r="H52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f aca="false">"30/12/"&amp;""&amp;"2022"</f>
+        <v>30/12/2022</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f aca="false">LOWER(A53)&amp;""&amp;"@gmail.com"</f>
+        <v>n18dccn161@gmail.com</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
